--- a/Docs/pequot ph3 proposal 5.29.21 - Copy.xlsx
+++ b/Docs/pequot ph3 proposal 5.29.21 - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimRiordan\Dropbox\My PC (DESKTOP-EGGB6PK)\Documents\Business\Clients\Client Proposals\Pequot Museum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Pequot-Museum\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5478C1-40D1-4BDD-B3DE-ABA9A59F6C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C07361-B32C-4A7D-BF82-2963142E1F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C7093CC-C8D8-4FEA-B652-A48BA9CE2987}"/>
+    <workbookView xWindow="-28920" yWindow="-1665" windowWidth="29040" windowHeight="15840" xr2:uid="{6C7093CC-C8D8-4FEA-B652-A48BA9CE2987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="48">
   <si>
     <t>System</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>SE-8P2-EPA</t>
+  </si>
+  <si>
+    <t>Exhibit - Glacier</t>
+  </si>
+  <si>
+    <t>Autumn Terrestrial</t>
+  </si>
+  <si>
+    <t>War Theaters</t>
+  </si>
+  <si>
+    <t>Elevator Lobby</t>
+  </si>
+  <si>
+    <t>Conference Rm</t>
+  </si>
+  <si>
+    <t>Entry Lobby</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -297,11 +315,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,6 +337,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,25 +652,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA50B58B-2E08-4D50-B0A8-C5F781BA2F6B}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -663,8 +692,11 @@
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -675,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -686,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -697,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -708,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -719,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -730,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -741,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -752,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -763,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -774,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -785,22 +817,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -810,8 +842,11 @@
       <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -822,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -833,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -844,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -855,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -866,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -877,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -888,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -899,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -910,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -921,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -932,22 +967,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -957,8 +992,11 @@
       <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -969,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -980,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -991,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1035,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1046,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1057,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>15</v>
       </c>
@@ -1076,22 +1114,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
@@ -1101,8 +1139,11 @@
       <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -1201,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1223,22 +1264,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>28</v>
       </c>
@@ -1248,8 +1289,11 @@
       <c r="C67" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E67" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -1260,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1282,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1293,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1304,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1326,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -1348,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -1370,22 +1414,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>32</v>
       </c>
@@ -1395,8 +1439,11 @@
       <c r="C83" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E83" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -1429,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -1440,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -1451,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -1473,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -1484,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -1517,22 +1564,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>30</v>
       </c>
@@ -1542,8 +1589,11 @@
       <c r="C99" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E99" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -1576,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -1620,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -1631,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -1653,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -1664,46 +1714,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
